--- a/Excel/XR-Devices.xlsx
+++ b/Excel/XR-Devices.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\hub\my\memo-wiki\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0191C-2047-40B4-8AC5-CCCE59C687E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C5A47-105C-468A-AE02-3F309514510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="デバイス比較" sheetId="1" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>英語</t>
   </si>
@@ -75,16 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シースルー型
-ビデオシースルー型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dynamics 365 Remote Assist
-Dynamics 365 Guides</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポケモンGo</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -100,11 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hololens 2
-Vision Pro</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7万4800円</t>
     <rPh sb="1" eb="2">
       <t>マン</t>
@@ -115,23 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>42万2180円
-80万円</t>
-    <rPh sb="2" eb="3">
-      <t>マン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2024/3/28時点</t>
     <rPh sb="9" eb="11">
       <t>ジテン</t>
@@ -139,21 +119,203 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パススルーを使用することでMRも利用可能だが、機能はおまけ程度</t>
+    <t>Dynamics 365 Guides</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vision Pro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42万2180円</t>
+    <rPh sb="2" eb="3">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80万円</t>
+    <rPh sb="2" eb="3">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビデオシースルー型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シースルー型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Microsoft</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HoloLens 2 &amp; Trimble XR10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>79万5961円</t>
+    <rPh sb="2" eb="3">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防塵</t>
+    <rPh sb="0" eb="2">
+      <t>ボウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/ja-jp/hololens/buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57万1780円</t>
+    <rPh sb="2" eb="3">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HoloLens 2 Industrial Edition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/ja-jp/hololens/hololens2-options</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ除去</t>
+    <rPh sb="3" eb="5">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリーンルーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルメット一体型</t>
+    <rPh sb="5" eb="8">
+      <t>イッタイガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスプレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HoloLens 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/ja-jp/hololens/hardware</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２～3時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続使用可能時間</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テイド</t>
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フル充電までの時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65分</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +339,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +361,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -215,25 +391,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,104 +752,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="7" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.69921875" customWidth="1"/>
+    <col min="12" max="12" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="F2" t="s">
+    <row r="2" spans="2:14">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="36">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -617,4 +1031,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2528113B-7514-48DD-9566-3F62A4A7E875}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F6BFCFA9-BBB2-4CF7-889E-E31F9F6D9470}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D8ED0785-EC41-45ED-A96C-B7D956EB262D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{346CDC85-72EB-444D-B2F4-B2A180838489}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>